--- a/data/stat probs/gary harris stat probs - condition.xlsx
+++ b/data/stat probs/gary harris stat probs - condition.xlsx
@@ -19,12 +19,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
@@ -587,28 +587,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -1389,28 +1389,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1745,28 +1745,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -2547,28 +2547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -3281,6 +3281,1610 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>88</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>88</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>88</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>88</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,28 +4953,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3762,7 +5366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3831,28 +5435,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4244,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4313,28 +5917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -5046,7 +6650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5115,28 +6719,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -5840,906 +7444,6 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
-      <c r="H7" t="n">
-        <v>83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>83</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>83</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>83</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" t="n">
-        <v>83</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
-      <c r="H7" t="n">
-        <v>83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>83</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>83</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>83</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6817,28 +7521,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -7619,28 +8323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -8421,28 +9125,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -9223,28 +9927,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -9897,28 +10601,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -10571,28 +11275,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10861,28 +11565,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11151,28 +11855,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -11601,28 +12305,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -12051,28 +12755,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12757,28 +13461,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13463,28 +14167,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13849,28 +14553,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -14651,28 +15355,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15037,16 +15741,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15055,10 +15759,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15423,16 +16127,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15441,10 +16145,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15809,28 +16513,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -16515,28 +17219,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -17221,28 +17925,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17511,28 +18215,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17801,28 +18505,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18475,28 +19179,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19149,10 +19853,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -19161,16 +19865,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19439,28 +20143,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -20241,10 +20945,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -20253,16 +20957,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20531,28 +21235,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20917,28 +21621,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21303,28 +22007,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21753,28 +22457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22203,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22685,28 +23389,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23167,28 +23871,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23649,28 +24353,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24131,28 +24835,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24517,28 +25221,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -25223,28 +25927,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25609,16 +26313,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25627,10 +26331,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25995,16 +26699,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26013,10 +26717,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26381,28 +27085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26575,28 +27279,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26769,28 +27473,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27347,28 +28051,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27925,28 +28629,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28727,28 +29431,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29529,10 +30233,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -29541,16 +30245,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30011,28 +30715,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -30717,10 +31421,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -30729,16 +31433,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31199,28 +31903,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31489,28 +32193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31779,28 +32483,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32069,28 +32773,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32359,28 +33063,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32713,28 +33417,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33067,28 +33771,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33453,28 +34157,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33839,28 +34543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34513,28 +35217,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34707,28 +35411,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35381,28 +36085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35767,28 +36471,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36153,28 +36857,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36603,28 +37307,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37053,28 +37757,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37311,28 +38015,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37569,28 +38273,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38147,28 +38851,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38725,28 +39429,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38983,28 +39687,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39177,28 +39881,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39435,28 +40139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39693,28 +40397,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39951,10 +40655,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -40177,10 +40881,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -40403,28 +41107,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40757,28 +41461,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41111,28 +41815,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41305,28 +42009,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41499,28 +42203,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42173,28 +42877,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42367,28 +43071,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43041,28 +43745,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43715,28 +44419,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44389,10 +45093,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -44407,10 +45111,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44711,10 +45415,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -44729,10 +45433,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45033,28 +45737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45419,28 +46123,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45811,10 +46515,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -45973,10 +46677,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -46135,10 +46839,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
